--- a/biology/Médecine/Hôpital_baptiste_de_Bangalore/Hôpital_baptiste_de_Bangalore.xlsx
+++ b/biology/Médecine/Hôpital_baptiste_de_Bangalore/Hôpital_baptiste_de_Bangalore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_baptiste_de_Bangalore</t>
+          <t>Hôpital_baptiste_de_Bangalore</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital baptiste de Bangalore (anglais : Bangalore Baptist Hospital) est un hôpital baptiste situé à Bangalore, Karnataka, Inde. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_baptiste_de_Bangalore</t>
+          <t>Hôpital_baptiste_de_Bangalore</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital a commencé comme une clinique externe fondée par le Conseil de mission internationale au milieu des années 60, et a évolué pour devenir un hôpital général de 80 lits qui a officiellement ouvert le 15 janvier 1973 [1]. En janvier 1989, le Christian Medical College est devenu responsable de l'administration de l'hôpital. Il dispense divers soins infirmiers, médicaux et des programmes éducatifs des services paramédicaux [2],
-[3]. En 2014, il a reçu un Quality Award du Quality Council of India [4]. En 2022, il a ouvert un « Centre de recherche sur la santé des femmes et des enfants » [5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital a commencé comme une clinique externe fondée par le Conseil de mission internationale au milieu des années 60, et a évolué pour devenir un hôpital général de 80 lits qui a officiellement ouvert le 15 janvier 1973 . En janvier 1989, le Christian Medical College est devenu responsable de l'administration de l'hôpital. Il dispense divers soins infirmiers, médicaux et des programmes éducatifs des services paramédicaux ,
+. En 2014, il a reçu un Quality Award du Quality Council of India . En 2022, il a ouvert un « Centre de recherche sur la santé des femmes et des enfants » .
 </t>
         </is>
       </c>
